--- a/기획서/마족 레벨링.xlsx
+++ b/기획서/마족 레벨링.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ru\Desktop\졸작\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/기획서/마족 레벨링.xlsx
+++ b/기획서/마족 레벨링.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\G.G\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -939,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -949,9 +949,9 @@
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="7.875" style="1"/>
   </cols>
   <sheetData>
@@ -975,13 +975,13 @@
         <v>24</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>36</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>47</v>
@@ -1007,13 +1007,13 @@
         <v>30</v>
       </c>
       <c r="G2" s="7">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7">
         <v>2</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>4</v>
-      </c>
-      <c r="I2" s="7">
-        <v>5</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>46</v>
@@ -1039,10 +1039,10 @@
         <v>28</v>
       </c>
       <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
         <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4</v>
       </c>
       <c r="I3" s="2">
         <v>4</v>
@@ -1069,10 +1069,10 @@
         <v>24</v>
       </c>
       <c r="G4" s="7">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7">
         <v>4</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
       </c>
       <c r="I4" s="7">
         <v>3</v>
@@ -1101,13 +1101,13 @@
         <v>34</v>
       </c>
       <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
-        <v>3</v>
-      </c>
       <c r="I5" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>51</v>
@@ -1131,13 +1131,13 @@
         <v>16</v>
       </c>
       <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
       <c r="I6" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>52</v>
@@ -1163,10 +1163,10 @@
         <v>26</v>
       </c>
       <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
         <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3</v>
       </c>
       <c r="I7" s="2">
         <v>3</v>
@@ -1193,13 +1193,13 @@
         <v>28</v>
       </c>
       <c r="G8" s="7">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>54</v>
@@ -1225,13 +1225,13 @@
         <v>20</v>
       </c>
       <c r="G9" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="6">
         <v>4</v>
       </c>
       <c r="I9" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>55</v>
@@ -1255,10 +1255,10 @@
         <v>24</v>
       </c>
       <c r="G10" s="7">
+        <v>3</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
       </c>
       <c r="I10" s="7">
         <v>3</v>
@@ -1287,13 +1287,13 @@
         <v>34</v>
       </c>
       <c r="G11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6">
         <v>2</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>4</v>
-      </c>
-      <c r="I11" s="6">
-        <v>5</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>57</v>
@@ -1317,10 +1317,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="7">
+        <v>4</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
-      </c>
-      <c r="H12" s="7">
-        <v>4</v>
       </c>
       <c r="I12" s="7">
         <v>4</v>
@@ -1349,10 +1349,10 @@
         <v>20</v>
       </c>
       <c r="G13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="6">
         <v>2</v>
-      </c>
-      <c r="H13" s="6">
-        <v>3</v>
       </c>
       <c r="I13" s="6">
         <v>3</v>
@@ -1379,13 +1379,13 @@
         <v>16</v>
       </c>
       <c r="G14" s="7">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
       <c r="I14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>60</v>
@@ -1414,10 +1414,10 @@
         <v>3</v>
       </c>
       <c r="H15" s="6">
+        <v>3</v>
+      </c>
+      <c r="I15" s="6">
         <v>4</v>
-      </c>
-      <c r="I15" s="6">
-        <v>3</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>62</v>
@@ -1441,13 +1441,13 @@
         <v>22</v>
       </c>
       <c r="G16" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="5">
         <v>3</v>
       </c>
       <c r="I16" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="16" t="s">
         <v>61</v>
